--- a/downloaded_files/STRS312_Lecture-35253.xlsx
+++ b/downloaded_files/STRS312_Lecture-35253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Hamdy Aly Salman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يوسف عبد الحكيم السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED YOUSSEF ABDELHAKIM EL SAYED</x:t>
   </x:si>
   <x:si>
     <x:t>1220040</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -988,7 +997,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6651198264</x:v>
+        <x:v>45927.4311939468</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6652044792</x:v>
+        <x:v>45906.6651198264</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6657890046</x:v>
+        <x:v>45906.6652044792</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6658085301</x:v>
+        <x:v>45906.6657890046</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.666003206</x:v>
+        <x:v>45906.6658085301</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646422801</x:v>
+        <x:v>45906.666003206</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4191093403</x:v>
+        <x:v>45906.6646422801</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6706471875</x:v>
+        <x:v>45907.4191093403</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647631134</x:v>
+        <x:v>45906.6706471875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6655646991</x:v>
+        <x:v>45906.6647631134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.689328669</x:v>
+        <x:v>45906.6655646991</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6701407407</x:v>
+        <x:v>45906.689328669</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6671901273</x:v>
+        <x:v>45906.6701407407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.664605787</x:v>
+        <x:v>45906.6671901273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645550579</x:v>
+        <x:v>45906.664605787</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45906.6645550579</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660260417</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6843975347</x:v>
+        <x:v>45906.6660260417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45906.6843975347</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649988426</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.667018669</x:v>
+        <x:v>45906.6649988426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45906.667018669</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45906.6664437847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6646348727</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6668763079</x:v>
+        <x:v>45906.6646348727</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649873843</x:v>
+        <x:v>45906.6668763079</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45906.6649873843</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45911.9812875347</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45911.9812875347</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6659780903</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.6659780903</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.666896412</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45906.666896412</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/STRS312_Lecture-35253.xlsx
+++ b/downloaded_files/STRS312_Lecture-35253.xlsx
@@ -997,7 +997,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4311939468</x:v>
+        <x:v>45927.8940291319</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>

--- a/downloaded_files/STRS312_Lecture-35253.xlsx
+++ b/downloaded_files/STRS312_Lecture-35253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Abd El-Rahman Hany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي محمد ابو زيد محمد ابو زيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Abouzeid Mohamed Abouzeid</x:t>
   </x:si>
   <x:si>
     <x:t>1220072</x:t>
@@ -542,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1541,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45928.9164866898</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660260417</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6843975347</x:v>
+        <x:v>45906.6660260417</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45906.6843975347</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649988426</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.667018669</x:v>
+        <x:v>45906.6649988426</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6664437847</x:v>
+        <x:v>45906.667018669</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45906.6664437847</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6646348727</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6668763079</x:v>
+        <x:v>45906.6646348727</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649873843</x:v>
+        <x:v>45906.6668763079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45906.6649873843</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45911.9812875347</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45911.9812875347</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6647484954</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6659780903</x:v>
+        <x:v>45906.6647484954</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6655195602</x:v>
+        <x:v>45906.6659780903</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.6655195602</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6645800579</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.6645800579</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.666896412</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2335,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.666896412</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/STRS312_Lecture-35253.xlsx
+++ b/downloaded_files/STRS312_Lecture-35253.xlsx
@@ -2373,11 +2373,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20501]20501-70-الجيزة الرئيسي Time : Wednesday(8:10)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20501]20501-70-الجيزة الرئيسي Time : Wednesday(8:10)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20501]20501-70-الجيزة الرئيسي Time : Wednesday(8:10)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/STRS312_Lecture-35253.xlsx
+++ b/downloaded_files/STRS312_Lecture-35253.xlsx
@@ -2373,11 +2373,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:9)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:9)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:10)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Steel Structures  (STRS312) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(8:9)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
